--- a/Team-Data/2011-12/3-28-2011-12.xlsx
+++ b/Team-Data/2011-12/3-28-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.577</v>
+        <v>0.588</v>
       </c>
       <c r="H2" t="n">
         <v>49.2</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
         <v>81.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
         <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R2" t="n">
         <v>10.3</v>
@@ -714,16 +781,16 @@
         <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
         <v>14.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -732,16 +799,16 @@
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -750,22 +817,22 @@
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -780,10 +847,10 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>25</v>
@@ -792,16 +859,16 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -816,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -869,31 +936,31 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>15.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T3" t="n">
         <v>38.2</v>
@@ -923,19 +990,19 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
         <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -947,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -977,28 +1044,28 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.146</v>
+        <v>0.149</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
         <v>80.40000000000001</v>
@@ -1060,7 +1127,7 @@
         <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
@@ -1069,13 +1136,13 @@
         <v>22.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
         <v>39.2</v>
@@ -1084,7 +1151,7 @@
         <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>6.2</v>
@@ -1093,22 +1160,22 @@
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.9</v>
+        <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,13 +1211,13 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1162,19 +1229,19 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY4" t="n">
         <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.788</v>
+        <v>0.784</v>
       </c>
       <c r="H5" t="n">
         <v>48.1</v>
@@ -1236,13 +1303,13 @@
         <v>0.458</v>
       </c>
       <c r="L5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
         <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
         <v>15.6</v>
@@ -1251,7 +1318,7 @@
         <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R5" t="n">
         <v>13.6</v>
@@ -1266,7 +1333,7 @@
         <v>23.1</v>
       </c>
       <c r="V5" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
@@ -1287,7 +1354,7 @@
         <v>97.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1320,16 +1387,16 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1344,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
@@ -1356,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.708</v>
+        <v>0.706</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
         <v>30.1</v>
       </c>
       <c r="T6" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
         <v>20.2</v>
@@ -1451,37 +1518,37 @@
         <v>15.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5.1</v>
+        <v>-4.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>16</v>
@@ -1493,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1532,22 +1599,22 @@
         <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1681,34 +1748,34 @@
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
@@ -1788,37 +1855,37 @@
         <v>20.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.324</v>
+        <v>0.326</v>
       </c>
       <c r="O8" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P8" t="n">
         <v>27.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
         <v>43.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
         <v>6.5</v>
@@ -1830,16 +1897,16 @@
         <v>22.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1866,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1887,13 +1954,13 @@
         <v>6</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,55 +2037,55 @@
         <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R9" t="n">
         <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U9" t="n">
         <v>18.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
         <v>89.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2027,7 +2094,7 @@
         <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -2048,16 +2115,16 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2075,25 +2142,25 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.408</v>
+        <v>0.417</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.455</v>
@@ -2149,37 +2216,37 @@
         <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O10" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>5.6</v>
@@ -2188,19 +2255,19 @@
         <v>4.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA10" t="n">
         <v>17.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2218,22 +2285,22 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
         <v>10</v>
       </c>
       <c r="AL10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN10" t="n">
         <v>3</v>
       </c>
-      <c r="AM10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
@@ -2254,10 +2321,10 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
@@ -2418,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2427,34 +2494,34 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT11" t="n">
         <v>15</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>35.1</v>
       </c>
       <c r="J12" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.436</v>
@@ -2513,31 +2580,31 @@
         <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="V12" t="n">
         <v>14.4</v>
@@ -2552,25 +2619,25 @@
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
@@ -2585,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,34 +2661,34 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV12" t="n">
         <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.58</v>
+        <v>0.571</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
         <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.348</v>
@@ -2707,22 +2774,22 @@
         <v>24</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R13" t="n">
         <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W13" t="n">
         <v>8.199999999999999</v>
@@ -2740,22 +2807,22 @@
         <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2791,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2815,13 +2882,13 @@
         <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
@@ -2943,16 +3010,16 @@
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
@@ -2961,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3003,7 +3070,7 @@
         <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3125,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3134,13 +3201,13 @@
         <v>12</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3149,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3331,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
         <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3364,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="BB16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3510,7 +3577,7 @@
         <v>18</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>3</v>
@@ -3519,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>19</v>
@@ -3543,13 +3610,13 @@
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
         <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>0.481</v>
+        <v>0.471</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3599,7 +3666,7 @@
         <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3611,31 +3678,31 @@
         <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P18" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
         <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T18" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U18" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3644,22 +3711,22 @@
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA18" t="n">
         <v>22</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -3668,7 +3735,7 @@
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3701,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3713,10 +3780,10 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3731,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J19" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
         <v>8.1</v>
       </c>
       <c r="M19" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T19" t="n">
         <v>40.1</v>
       </c>
       <c r="U19" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
@@ -3829,19 +3896,19 @@
         <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3859,25 +3926,25 @@
         <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
@@ -3889,25 +3956,25 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -3942,46 +4009,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.26</v>
+        <v>0.245</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M20" t="n">
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.327</v>
+        <v>0.321</v>
       </c>
       <c r="O20" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
         <v>11.3</v>
@@ -3993,10 +4060,10 @@
         <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.1</v>
@@ -4008,19 +4075,19 @@
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4044,19 +4111,19 @@
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>14</v>
@@ -4071,22 +4138,22 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>29</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
         <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O21" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P21" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R21" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T21" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4223,13 +4290,13 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
         <v>27</v>
@@ -4244,13 +4311,13 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS21" t="n">
         <v>13</v>
       </c>
-      <c r="AS21" t="n">
-        <v>12</v>
-      </c>
       <c r="AT21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.627</v>
+        <v>0.64</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J23" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.444</v>
@@ -4527,19 +4594,19 @@
         <v>23.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.643</v>
+        <v>0.645</v>
       </c>
       <c r="R23" t="n">
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>15.5</v>
@@ -4560,13 +4627,13 @@
         <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,22 +4678,22 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4638,10 +4705,10 @@
         <v>9</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>6.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF24" t="n">
         <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J25" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="O25" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P25" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
         <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V25" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
@@ -4924,22 +4991,22 @@
         <v>19.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4948,10 +5015,10 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4969,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4984,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5002,10 +5069,10 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5127,10 +5194,10 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5145,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5163,10 +5230,10 @@
         <v>25</v>
       </c>
       <c r="AU26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
         <v>9</v>
@@ -5175,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.43</v>
+        <v>0.427</v>
       </c>
       <c r="L27" t="n">
         <v>6.4</v>
@@ -5246,28 +5313,28 @@
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q27" t="n">
         <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S27" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V27" t="n">
         <v>14.8</v>
@@ -5279,7 +5346,7 @@
         <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>19.4</v>
@@ -5288,28 +5355,28 @@
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="AC27" t="n">
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
         <v>24</v>
       </c>
-      <c r="AF27" t="n">
-        <v>25</v>
-      </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5324,13 +5391,13 @@
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP27" t="n">
         <v>11</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>19</v>
@@ -5339,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5357,16 +5424,16 @@
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>11</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.714</v>
+        <v>0.708</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.724</v>
@@ -5449,7 +5516,7 @@
         <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
         <v>13.3</v>
@@ -5464,22 +5531,22 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC28" t="n">
         <v>4.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5488,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5503,13 +5570,13 @@
         <v>2</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5524,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,22 +5600,22 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
         <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>0.333</v>
+        <v>0.32</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,43 +5665,43 @@
         <v>34.5</v>
       </c>
       <c r="J29" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.44</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M29" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="O29" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R29" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S29" t="n">
         <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
         <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
@@ -5643,25 +5710,25 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
         <v>23.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.5</v>
+        <v>91.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -5682,37 +5749,37 @@
         <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5730,7 +5797,7 @@
         <v>24</v>
       </c>
       <c r="BB29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>27</v>
       </c>
       <c r="F30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="H30" t="n">
         <v>48.9</v>
       </c>
       <c r="I30" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J30" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.308</v>
+        <v>0.309</v>
       </c>
       <c r="O30" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P30" t="n">
         <v>24.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>12.9</v>
@@ -5810,7 +5877,7 @@
         <v>30.7</v>
       </c>
       <c r="T30" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U30" t="n">
         <v>21.7</v>
@@ -5828,22 +5895,22 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5861,10 +5928,10 @@
         <v>3</v>
       </c>
       <c r="AK30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
@@ -5873,7 +5940,7 @@
         <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
@@ -5885,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
@@ -5894,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,10 +6104,10 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6052,7 +6119,7 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>22</v>
@@ -6067,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6076,10 +6143,10 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-28-2011-12</t>
+          <t>2012-03-28</t>
         </is>
       </c>
     </row>
